--- a/biology/Botanique/Liste_des_plantes_appelées_arbres/Liste_des_plantes_appelées_arbres.xlsx
+++ b/biology/Botanique/Liste_des_plantes_appelées_arbres/Liste_des_plantes_appelées_arbres.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_plantes_appel%C3%A9es_arbres</t>
+          <t>Liste_des_plantes_appelées_arbres</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La liste des plantes appelées arbres recense les taxons végétaux qui sont appelés « arbre » par leur nom vernaculaire, sans forcément être classées comme arbre d'un point de vue botanique.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_plantes_appel%C3%A9es_arbres</t>
+          <t>Liste_des_plantes_appelées_arbres</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Liste</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Arbre à baume, arbre de baume : divers arbres comme le bursère gommifère (gommart, bursère balsamifère, gommier blanc, gommier de montagne, simarouba, Bursera simaruba (L.) Sarg.), le badamier (amandier-pays, Terminalia catappa L.), l’élémi de Manille (Canarium luzonicum (Blume) A. Gray), etc.
 Arbre à benjoin : Styrax benzoin Dryand.
@@ -519,7 +533,7 @@
 Arbre à beurre : karité, Vitellaria paradoxa C. F. Gaertn.
 Arbre à beurre : bassie butyracée, Diploknema butyracea (Roxb.) H. J. Lam
 Arbre à beurre, arbre à chandelle, arbre à suif : lami, Pentadesma butyracea Sabine
-Arbre à beurre des Indes : Madhuca longifolia var. latifolia (Roxburgh) Chevalier, Sapotaceae[1]
+Arbre à beurre des Indes : Madhuca longifolia var. latifolia (Roxburgh) Chevalier, Sapotaceae
 Arbre à boulets de canon, arbre aux boulets de canon : boulet de canon, ayahuma, Couroupita guianensis Aubl.
 Arbre à bourre : arec chevelu, Acanthophoenix rubra (Bory) H. Wendl.
 Arbre à café : chicot du Canada, Gymnocladus dioicus (L.) K. Koch
